--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth2LDOD1BRNTOTK50percentRL.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="204" windowWidth="14340" windowHeight="4332" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -232,9 +237,6 @@
     <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Updated Income tax calculation script creation scenarios.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -254,12 +256,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\Updated Income tax calculation script creation scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,6 +500,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -542,7 +550,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,9 +583,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -610,6 +635,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -792,15 +834,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -828,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -842,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -870,16 +912,16 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,7 +947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -926,7 +968,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
@@ -947,7 +989,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -968,7 +1010,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
@@ -989,7 +1031,7 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
@@ -1010,7 +1052,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1073,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1094,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1115,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1136,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1115,7 +1157,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
@@ -1136,7 +1178,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
@@ -1157,7 +1199,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>39</v>
       </c>
@@ -1178,7 +1220,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
@@ -1199,7 +1241,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>59</v>
       </c>
@@ -1220,7 +1262,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1240,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
@@ -1260,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>48</v>
       </c>
@@ -1280,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>49</v>
       </c>
@@ -1300,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>50</v>
       </c>
@@ -1320,7 +1362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>57</v>
       </c>
@@ -1340,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>51</v>
       </c>
@@ -1360,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
@@ -1380,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>53</v>
       </c>
@@ -1400,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
@@ -1420,7 +1462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -1440,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -1460,7 +1502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
@@ -1489,23 +1531,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
@@ -1546,7 +1588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="28" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="28" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>69</v>
       </c>
@@ -1554,34 +1596,34 @@
         <v>9</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>72</v>
-      </c>
       <c r="J2" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="24" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="24" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>69</v>
       </c>
@@ -1589,28 +1631,28 @@
         <v>10</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J3" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>4</v>
@@ -1618,7 +1660,7 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" s="24" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="24" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>69</v>
       </c>
@@ -1626,28 +1668,28 @@
         <v>11</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J4" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>4</v>
@@ -1655,7 +1697,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>69</v>
       </c>
@@ -1663,28 +1705,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J5" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>4</v>
@@ -1692,7 +1734,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>69</v>
       </c>
@@ -1700,28 +1742,28 @@
         <v>13</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J6" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>4</v>
@@ -1729,7 +1771,7 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>69</v>
       </c>
@@ -1737,28 +1779,28 @@
         <v>14</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J7" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>4</v>
@@ -1766,7 +1808,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>69</v>
       </c>
@@ -1774,28 +1816,28 @@
         <v>15</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J8" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>4</v>
@@ -1803,7 +1845,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>69</v>
       </c>
@@ -1811,28 +1853,28 @@
         <v>27</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J9" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>4</v>
@@ -1840,7 +1882,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>69</v>
       </c>
@@ -1848,28 +1890,28 @@
         <v>28</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J10" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10" s="26" t="s">
         <v>4</v>
@@ -1877,7 +1919,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>69</v>
       </c>
@@ -1885,28 +1927,28 @@
         <v>36</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J11" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" s="26" t="s">
         <v>4</v>
@@ -1914,7 +1956,7 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>69</v>
       </c>
@@ -1922,28 +1964,28 @@
         <v>37</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J12" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>4</v>
@@ -1951,7 +1993,7 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>69</v>
       </c>
@@ -1959,28 +2001,28 @@
         <v>38</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J13" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>4</v>
@@ -1988,7 +2030,7 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>69</v>
       </c>
@@ -1996,28 +2038,28 @@
         <v>39</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J14" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K14" s="26" t="s">
         <v>4</v>
@@ -2025,7 +2067,7 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>69</v>
       </c>
@@ -2033,28 +2075,28 @@
         <v>40</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J15" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>4</v>
@@ -2062,7 +2104,7 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>69</v>
       </c>
@@ -2070,28 +2112,28 @@
         <v>41</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J16" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>4</v>
@@ -2099,7 +2141,7 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>69</v>
       </c>
@@ -2107,28 +2149,28 @@
         <v>47</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J17" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17" s="26" t="s">
         <v>4</v>
@@ -2136,7 +2178,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>69</v>
       </c>
@@ -2144,28 +2186,28 @@
         <v>48</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H18" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J18" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K18" s="26" t="s">
         <v>4</v>
@@ -2173,7 +2215,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>69</v>
       </c>
@@ -2181,28 +2223,28 @@
         <v>49</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H19" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J19" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>4</v>
@@ -2210,7 +2252,7 @@
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>69</v>
       </c>
@@ -2218,28 +2260,28 @@
         <v>50</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J20" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20" s="26" t="s">
         <v>4</v>
@@ -2247,7 +2289,7 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>69</v>
       </c>
@@ -2255,28 +2297,28 @@
         <v>51</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J21" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K21" s="26" t="s">
         <v>4</v>
@@ -2284,7 +2326,7 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>69</v>
       </c>
@@ -2292,28 +2334,28 @@
         <v>52</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J22" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" s="26" t="s">
         <v>4</v>
@@ -2321,7 +2363,7 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>69</v>
       </c>
@@ -2329,28 +2371,28 @@
         <v>53</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J23" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K23" s="26" t="s">
         <v>4</v>
@@ -2358,7 +2400,7 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>69</v>
       </c>
@@ -2366,28 +2408,28 @@
         <v>54</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J24" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>4</v>
@@ -2395,7 +2437,7 @@
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>69</v>
       </c>
@@ -2403,28 +2445,28 @@
         <v>55</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H25" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J25" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K25" s="26" t="s">
         <v>4</v>
@@ -2432,7 +2474,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>69</v>
       </c>
@@ -2440,28 +2482,28 @@
         <v>56</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J26" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K26" s="26" t="s">
         <v>4</v>
@@ -2469,7 +2511,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>69</v>
       </c>
@@ -2477,28 +2519,28 @@
         <v>57</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H27" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J27" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>4</v>
@@ -2506,7 +2548,7 @@
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>69</v>
       </c>
@@ -2514,28 +2556,28 @@
         <v>58</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J28" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K28" s="26" t="s">
         <v>4</v>
@@ -2543,7 +2585,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:13" s="24" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>69</v>
       </c>
@@ -2551,28 +2593,28 @@
         <v>59</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>70</v>
       </c>
       <c r="H29" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="J29" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K29" s="26" t="s">
         <v>4</v>
@@ -2590,24 +2632,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>60</v>
       </c>
@@ -2648,7 +2690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="28" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="28" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>69</v>
       </c>
@@ -2656,28 +2698,28 @@
         <v>9</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>4</v>
